--- a/Documentation/Working_Documents/Ivy-Nunchuck-Joystick-Adapter_BOM.xlsx
+++ b/Documentation/Working_Documents/Ivy-Nunchuck-Joystick-Adapter_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/RD 23-05 ATP Joysticks/1C - Joystick - Wearable Pointer/Ivy-Joystick/Documentation/Working_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09F03FDF-A6F7-4F4B-AF54-AED1FC59DABD}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{661F0665-02CD-49BD-B15D-BD29A4484802}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Total Cost</t>
   </si>
@@ -98,12 +98,6 @@
     <t>Part and description</t>
   </si>
   <si>
-    <t>Version: V0.1</t>
-  </si>
-  <si>
-    <t>Last updated: 2023-Jun-09</t>
-  </si>
-  <si>
     <t>Part type</t>
   </si>
   <si>
@@ -170,15 +164,6 @@
     <t>Shipping</t>
   </si>
   <si>
-    <t>Top</t>
-  </si>
-  <si>
-    <t>Bottom</t>
-  </si>
-  <si>
-    <t>USB-C Cover</t>
-  </si>
-  <si>
     <t>USB C Cable</t>
   </si>
   <si>
@@ -198,6 +183,24 @@
   </si>
   <si>
     <t>Ivy Nunchuk Joystick Adapter</t>
+  </si>
+  <si>
+    <t>Enclosure Top</t>
+  </si>
+  <si>
+    <t>Enclosure Bottom</t>
+  </si>
+  <si>
+    <t>Version: V0.1.1</t>
+  </si>
+  <si>
+    <t>Last updated: 2023-Jul-13</t>
+  </si>
+  <si>
+    <t>Ivy_Nunchuk_Joystick_Adapter_Bottom.stl</t>
+  </si>
+  <si>
+    <t>Ivy_Nunchuk_Joystick_Adapter_Top.stl</t>
   </si>
 </sst>
 </file>
@@ -813,7 +816,7 @@
   <dimension ref="B1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,7 +840,7 @@
   <sheetData>
     <row r="1" spans="2:15" ht="35.25" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -851,24 +854,24 @@
     </row>
     <row r="2" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="5">
         <f>SUM(J5:J14)+H21</f>
-        <v>41.3</v>
+        <v>41.274999999999999</v>
       </c>
       <c r="G2" s="35">
         <f>SUM(I16:I20)</f>
-        <v>8.1944444444444445E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H2" s="6">
         <f>SUM(G16:G20)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -878,16 +881,16 @@
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>5</v>
@@ -913,13 +916,13 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -939,18 +942,18 @@
         <v>11.49</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -970,18 +973,18 @@
         <v>4.24</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1001,18 +1004,18 @@
         <v>1.37</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1032,18 +1035,18 @@
         <v>10.79</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1063,18 +1066,18 @@
         <v>3.25</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1094,15 +1097,15 @@
         <v>1.66</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1161,7 +1164,7 @@
         <v>15</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>10</v>
@@ -1169,7 +1172,10 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1188,7 +1194,10 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1201,27 +1210,16 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="I17" s="33">
-        <v>5.6250000000000001E-2</v>
+        <v>4.9999999999999996E-2</v>
       </c>
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
       <c r="H18" s="17">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I18" s="33">
-        <v>6.9444444444444447E-4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" s="33"/>
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
@@ -1245,7 +1243,7 @@
       </c>
       <c r="H21" s="21">
         <f>SUM(H16:H20)</f>
-        <v>0.5</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="J21" s="13"/>
     </row>
@@ -1298,69 +1296,69 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="L31" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
       <c r="L32" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
       <c r="L33" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="18"/>
       <c r="L34" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.25">
@@ -1380,6 +1378,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B51EC7ECFAC78D4E8EF6CBAFFF0B3505" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7e0d9d996845e2cef65e12e895c4c91e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xmlns:ns3="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97eb945ec045b4d52e9ff03a8a8db852" ns2:_="" ns3:_="">
     <xsd:import namespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
@@ -1622,17 +1631,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1643,6 +1641,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{753D9DFF-8B4C-4474-B755-97BC945A0EF1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1661,17 +1670,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
-    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
   <ds:schemaRefs>

--- a/Documentation/Working_Documents/Ivy-Nunchuck-Joystick-Adapter_BOM.xlsx
+++ b/Documentation/Working_Documents/Ivy-Nunchuck-Joystick-Adapter_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/RD 23-05 ATP Joysticks/1C - Joystick - Wearable Pointer/Ivy-Joystick/Documentation/Working_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{661F0665-02CD-49BD-B15D-BD29A4484802}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB00F583-2DB7-467D-8B4B-B3A9560E0B45}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM - Ivy Nunchuck Adapter" sheetId="2" r:id="rId1"/>
@@ -816,7 +816,7 @@
   <dimension ref="B1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +831,7 @@
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
     <col min="12" max="12" width="78.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -1389,6 +1389,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B51EC7ECFAC78D4E8EF6CBAFFF0B3505" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7e0d9d996845e2cef65e12e895c4c91e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xmlns:ns3="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97eb945ec045b4d52e9ff03a8a8db852" ns2:_="" ns3:_="">
     <xsd:import namespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
@@ -1631,15 +1640,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
   <ds:schemaRefs>
@@ -1652,6 +1652,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{753D9DFF-8B4C-4474-B755-97BC945A0EF1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1668,12 +1676,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>